--- a/res/chocolates.xlsx
+++ b/res/chocolates.xlsx
@@ -24,13 +24,13 @@
     <t>price</t>
   </si>
   <si>
-    <t>mars</t>
+    <t>Cadbury</t>
   </si>
   <si>
-    <t>perk</t>
+    <t>Kitkat</t>
   </si>
   <si>
-    <t>Cadbury</t>
+    <t>Mars</t>
   </si>
 </sst>
 </file>
@@ -372,7 +372,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -387,7 +387,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>10</v>
@@ -395,7 +395,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>20</v>
@@ -403,7 +403,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>30</v>
